--- a/Style.xlsx
+++ b/Style.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
   <si>
     <t>公司報表_台電</t>
   </si>
@@ -107,12 +107,80 @@
     <t>8月</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> Critical Event 發生次數 Top 10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Site </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device unreachable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network alert</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethernet port alert</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>彰林P/S</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗D/S</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>松山P/S</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>樹德P/S</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>汐止E/S</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲林P/S</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅東P/S</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新營P/S</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中壢P/S</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">板橋P/S </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warning Event 發生次數 Top 10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +232,15 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +271,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -223,11 +304,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -259,13 +360,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -287,6 +382,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -392,7 +523,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -519,7 +649,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -646,7 +775,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -773,7 +901,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -948,7 +1075,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1023,7 +1149,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1176,7 +1301,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1303,7 +1427,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1430,7 +1553,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1557,7 +1679,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1732,7 +1853,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1807,7 +1927,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3450,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3591,12 +3710,12 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -3615,12 +3734,12 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -3639,12 +3758,12 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -3729,11 +3848,11 @@
     <row r="12" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -3797,13 +3916,13 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -3821,13 +3940,13 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -3845,13 +3964,13 @@
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -3869,13 +3988,13 @@
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -3893,13 +4012,13 @@
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -4206,12 +4325,12 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
       <c r="N31" s="2"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -4245,11 +4364,11 @@
     <row r="33" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -4270,10 +4389,10 @@
       <c r="C34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -4294,10 +4413,10 @@
       <c r="C35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -4318,10 +4437,10 @@
       <c r="C36" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -4342,10 +4461,10 @@
       <c r="C37" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="18"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -4366,10 +4485,10 @@
       <c r="C38" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="17"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="15"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -4387,13 +4506,13 @@
     <row r="39" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="18" t="s">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="17"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -4412,7 +4531,7 @@
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="19"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -4455,7 +4574,7 @@
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="20"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="6" t="s">
         <v>11</v>
       </c>
@@ -4669,20 +4788,22 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
+      <c r="C50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
       <c r="N50" s="2"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -4713,20 +4834,36 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+      <c r="C52" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="22"/>
+      <c r="I52" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="22"/>
+      <c r="L52" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -4738,17 +4875,33 @@
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="C53" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="23">
+        <v>56</v>
+      </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="F53" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="23">
+        <v>7</v>
+      </c>
       <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="I53" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" s="23">
+        <v>7</v>
+      </c>
       <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
+      <c r="L53" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M53" s="23">
+        <v>7</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -4760,17 +4913,33 @@
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="C54" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="30">
+        <v>54</v>
+      </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="F54" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="23">
+        <v>9</v>
+      </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
+      <c r="I54" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54" s="23">
+        <v>9</v>
+      </c>
       <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
+      <c r="L54" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M54" s="23">
+        <v>9</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -4782,17 +4951,33 @@
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="C55" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="18">
+        <v>53</v>
+      </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="F55" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="18">
+        <v>9</v>
+      </c>
       <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
+      <c r="I55" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="18">
+        <v>9</v>
+      </c>
       <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
+      <c r="L55" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" s="18">
+        <v>9</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -4804,17 +4989,33 @@
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="C56" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="23">
+        <v>53</v>
+      </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="F56" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="23">
+        <v>8</v>
+      </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
+      <c r="I56" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56" s="23">
+        <v>8</v>
+      </c>
       <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
+      <c r="L56" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M56" s="23">
+        <v>8</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -4826,17 +5027,33 @@
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="C57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="23">
+        <v>51</v>
+      </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="F57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="23">
+        <v>3</v>
+      </c>
       <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
+      <c r="I57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J57" s="23">
+        <v>3</v>
+      </c>
       <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
+      <c r="L57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M57" s="23">
+        <v>3</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -4848,17 +5065,33 @@
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="C58" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="23">
+        <v>50</v>
+      </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="F58" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="23">
+        <v>6</v>
+      </c>
       <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
+      <c r="I58" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="23">
+        <v>6</v>
+      </c>
       <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
+      <c r="L58" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M58" s="23">
+        <v>6</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -4870,17 +5103,33 @@
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="C59" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="23">
+        <v>49</v>
+      </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="F59" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" s="23">
+        <v>2</v>
+      </c>
       <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
+      <c r="I59" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="23">
+        <v>2</v>
+      </c>
       <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
+      <c r="L59" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M59" s="23">
+        <v>2</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -4892,17 +5141,33 @@
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="C60" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="23">
+        <v>44</v>
+      </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="F60" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="23">
+        <v>7</v>
+      </c>
       <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
+      <c r="I60" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J60" s="23">
+        <v>7</v>
+      </c>
       <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
+      <c r="L60" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M60" s="23">
+        <v>7</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -4914,17 +5179,33 @@
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="C61" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="23">
+        <v>43</v>
+      </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+      <c r="F61" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="18">
+        <v>4</v>
+      </c>
       <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
+      <c r="I61" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" s="18">
+        <v>4</v>
+      </c>
       <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
+      <c r="L61" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M61" s="18">
+        <v>4</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -4936,17 +5217,33 @@
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="C62" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="25">
+        <v>42</v>
+      </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="F62" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" s="2">
+        <v>3</v>
+      </c>
       <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
+      <c r="I62" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J62" s="2">
+        <v>3</v>
+      </c>
       <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
+      <c r="L62" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M62" s="2">
+        <v>3</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -4999,20 +5296,22 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
+      <c r="C65" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
       <c r="N65" s="2"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -5043,20 +5342,36 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
+      <c r="C67" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="22"/>
+      <c r="F67" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="22"/>
+      <c r="I67" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" s="22"/>
+      <c r="L67" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -5068,17 +5383,33 @@
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="C68" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="23">
+        <v>56</v>
+      </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
+      <c r="F68" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="23">
+        <v>7</v>
+      </c>
       <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
+      <c r="I68" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J68" s="23">
+        <v>7</v>
+      </c>
       <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
+      <c r="L68" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M68" s="23">
+        <v>7</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -5090,17 +5421,33 @@
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="C69" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="23">
+        <v>54</v>
+      </c>
       <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
+      <c r="F69" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="23">
+        <v>9</v>
+      </c>
       <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
+      <c r="I69" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J69" s="23">
+        <v>9</v>
+      </c>
       <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
+      <c r="L69" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M69" s="23">
+        <v>9</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -5112,17 +5459,33 @@
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="C70" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="18">
+        <v>53</v>
+      </c>
       <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
+      <c r="F70" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" s="18">
+        <v>9</v>
+      </c>
       <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
+      <c r="I70" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J70" s="18">
+        <v>9</v>
+      </c>
       <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
+      <c r="L70" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M70" s="18">
+        <v>9</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -5134,17 +5497,33 @@
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="C71" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="23">
+        <v>53</v>
+      </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
+      <c r="F71" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" s="23">
+        <v>8</v>
+      </c>
       <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
+      <c r="I71" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J71" s="23">
+        <v>8</v>
+      </c>
       <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
+      <c r="L71" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M71" s="23">
+        <v>8</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -5156,17 +5535,33 @@
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="C72" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="23">
+        <v>51</v>
+      </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
+      <c r="F72" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72" s="23">
+        <v>3</v>
+      </c>
       <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
+      <c r="I72" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J72" s="23">
+        <v>3</v>
+      </c>
       <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
+      <c r="L72" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M72" s="23">
+        <v>3</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -5178,17 +5573,33 @@
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="C73" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="23">
+        <v>50</v>
+      </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
+      <c r="F73" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" s="23">
+        <v>6</v>
+      </c>
       <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
+      <c r="I73" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" s="23">
+        <v>6</v>
+      </c>
       <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
+      <c r="L73" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M73" s="23">
+        <v>6</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -5200,17 +5611,33 @@
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="C74" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="23">
+        <v>49</v>
+      </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
+      <c r="F74" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" s="23">
+        <v>2</v>
+      </c>
       <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
+      <c r="I74" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J74" s="23">
+        <v>2</v>
+      </c>
       <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
+      <c r="L74" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M74" s="23">
+        <v>2</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -5222,17 +5649,33 @@
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="C75" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="23">
+        <v>44</v>
+      </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
+      <c r="F75" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G75" s="23">
+        <v>7</v>
+      </c>
       <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
+      <c r="I75" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J75" s="23">
+        <v>7</v>
+      </c>
       <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
+      <c r="L75" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M75" s="23">
+        <v>7</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -5244,17 +5687,33 @@
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="C76" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="23">
+        <v>43</v>
+      </c>
       <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
+      <c r="F76" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" s="18">
+        <v>4</v>
+      </c>
       <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
+      <c r="I76" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J76" s="18">
+        <v>4</v>
+      </c>
       <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
+      <c r="L76" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M76" s="18">
+        <v>4</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -5266,17 +5725,33 @@
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="C77" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="25">
+        <v>42</v>
+      </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
+      <c r="F77" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G77" s="2">
+        <v>3</v>
+      </c>
       <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
+      <c r="I77" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J77" s="2">
+        <v>3</v>
+      </c>
       <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
+      <c r="L77" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M77" s="2">
+        <v>3</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>

--- a/Style.xlsx
+++ b/Style.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1410" windowWidth="29040" windowHeight="15840"/>
@@ -328,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -405,6 +405,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -412,12 +415,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,6 +520,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -649,6 +647,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -775,6 +774,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -901,6 +901,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1075,6 +1076,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1149,6 +1151,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1301,6 +1304,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1427,6 +1431,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1553,6 +1558,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1679,6 +1685,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1853,6 +1860,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1927,6 +1935,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3569,8 +3578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3710,12 +3719,12 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -3734,12 +3743,12 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -3758,12 +3767,12 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -3848,11 +3857,11 @@
     <row r="12" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -3916,13 +3925,13 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -3940,13 +3949,13 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -3964,13 +3973,13 @@
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -3988,13 +3997,13 @@
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -4012,13 +4021,13 @@
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -4913,10 +4922,10 @@
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54" s="26">
         <v>54</v>
       </c>
       <c r="E54" s="2"/>

--- a/Style.xlsx
+++ b/Style.xlsx
@@ -273,7 +273,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,9 +405,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -415,6 +412,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,7 +520,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -647,7 +646,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -774,7 +772,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -901,7 +898,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1076,7 +1072,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1151,7 +1146,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3579,7 +3573,7 @@
   <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+      <selection activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3719,12 +3713,12 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -3743,12 +3737,12 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -3767,12 +3761,12 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -3857,11 +3851,11 @@
     <row r="12" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -3925,13 +3919,13 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -3949,13 +3943,13 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -3973,13 +3967,13 @@
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -3997,13 +3991,13 @@
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -4021,13 +4015,13 @@
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -4922,10 +4916,10 @@
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="26">
+      <c r="D54" s="29">
         <v>54</v>
       </c>
       <c r="E54" s="2"/>
